--- a/excel_ass (1).xlsx
+++ b/excel_ass (1).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Church\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MotheoThozamileMadel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F6969-7346-48AB-A538-8A2353AAEB5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,7 +191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1001,19 +1004,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1327,11 +1336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1715,7 @@
         <v>400</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:G9" si="5">5/100 * D7</f>
+        <f t="shared" ref="D9:F9" si="5">5/100 * D7</f>
         <v>400</v>
       </c>
       <c r="E9" s="3">
@@ -1861,6 +1870,9 @@
         <f t="shared" si="9"/>
         <v>23861.599999999999</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1878,7 +1890,11 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;LName: Thozamile &amp;CSurname: Madela&amp;RITS Number: 202411681
+</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>